--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A604F21-21C6-4EA8-A695-8286A89893B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA049B6F-B358-483A-A9EF-95CD06DD2650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12180" yWindow="210" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE012E-EAB9-4A74-B1B9-1821319600CE}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,9 +1939,12 @@
       <c r="B34">
         <v>4</v>
       </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
       <c r="D34">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1951,9 +1954,12 @@
       <c r="B35">
         <v>9</v>
       </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
       <c r="D35">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2022,11 +2028,11 @@
       </c>
       <c r="C41">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D41">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA049B6F-B358-483A-A9EF-95CD06DD2650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AFB24D-BD61-4788-BF5A-3057C76D4655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE012E-EAB9-4A74-B1B9-1821319600CE}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,11 +1955,11 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>8.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2011,11 +2011,11 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D40">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C41">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D41">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\shoolProject\Documents\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AFB24D-BD61-4788-BF5A-3057C76D4655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA66CCCA-CDFD-4EC1-8864-17AA60D6B634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="555" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE012E-EAB9-4A74-B1B9-1821319600CE}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,11 +1767,11 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="D18">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,9 +1781,12 @@
       <c r="B19">
         <v>5</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="D19">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2028,11 +2031,11 @@
       </c>
       <c r="C41">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D41">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA66CCCA-CDFD-4EC1-8864-17AA60D6B634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38969A78-BD86-49CB-BFD9-E733ED12C056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="555" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="21600" windowHeight="11835" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
     <sheet name="Antrag" sheetId="2" r:id="rId2"/>
     <sheet name="Projektabschnitt 1" sheetId="3" r:id="rId3"/>
     <sheet name="Projektabschnitt 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Projektabschnitt 3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
   <si>
     <t>Projektphase</t>
   </si>
@@ -181,6 +182,9 @@
   </si>
   <si>
     <t>Projektplanung (Vorgehensweise, Lasten- Pflichtenheft und Projektantrag)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a) Grundstruktur</t>
   </si>
 </sst>
 </file>
@@ -282,7 +286,38 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -401,7 +436,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A2:B37" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{24D9A206-E1ED-46B8-AD02-3DC66FEEDDD3}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -412,7 +447,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A2:D39" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3E2D6C01-6062-4275-943D-E46215700AC6}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -427,7 +462,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D41" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D41" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FFC7A420-075D-4C78-902A-6EB93541D2AA}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -435,6 +470,21 @@
     <tableColumn id="3" xr3:uid="{64124765-476F-4440-A4B7-5154D6EC861A}" name="Ist" totalsRowFunction="sum"/>
     <tableColumn id="4" xr3:uid="{DD6041FB-BBBD-4387-83FF-3C8FE51B6742}" name="Differenz" totalsRowFunction="sum">
       <calculatedColumnFormula>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12D5748C-3DE1-4B86-A3EB-B6E20C76DA41}" name="Tabelle2456" displayName="Tabelle2456" ref="A2:D41" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{372AAA0D-80AC-4875-86A5-42742FC34982}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
+    <tableColumn id="2" xr3:uid="{5777CFD8-F1E0-455C-A18C-0EB20686A9DB}" name="Geplant" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{FDD6471E-564B-4BCC-8F48-39E8FEC18FE1}" name="Ist" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{4A393DA6-F053-445B-BDF4-0F7EDC825C81}" name="Differenz" totalsRowFunction="sum">
+      <calculatedColumnFormula>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1555,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE012E-EAB9-4A74-B1B9-1821319600CE}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,11 +1682,11 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,7 +1711,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,11 +1993,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,11 +2008,11 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <f>Tabelle245[[#This Row],[Geplant]]-Tabelle245[[#This Row],[Ist]]</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,11 +2081,512 @@
       </c>
       <c r="C41">
         <f>SUBTOTAL(109,Tabelle245[Ist])</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D41">
         <f>SUBTOTAL(109,Tabelle245[Differenz])</f>
-        <v>195</v>
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D4D401-ABF0-4C5C-9CC1-4F74C12FB785}">
+  <dimension ref="A2:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+      <c r="D14">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>2.5</v>
+      </c>
+      <c r="C16">
+        <v>1.5</v>
+      </c>
+      <c r="D16">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>12.5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3.25</v>
+      </c>
+      <c r="D18">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2.5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>8.5</v>
+      </c>
+      <c r="D30">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>5.5</v>
+      </c>
+      <c r="D35">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1.25</v>
+      </c>
+      <c r="D40">
+        <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <f>SUBTOTAL(109,Tabelle2456[Geplant])</f>
+        <v>224</v>
+      </c>
+      <c r="C41">
+        <f>SUBTOTAL(109,Tabelle2456[Ist])</f>
+        <v>32.5</v>
+      </c>
+      <c r="D41">
+        <f>SUBTOTAL(109,Tabelle2456[Differenz])</f>
+        <v>191.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38969A78-BD86-49CB-BFD9-E733ED12C056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F9C5CE-555C-4B8D-9871-9F8775BAA1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="21600" windowHeight="11835" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Projektabschnitt 1" sheetId="3" r:id="rId3"/>
     <sheet name="Projektabschnitt 2" sheetId="4" r:id="rId4"/>
     <sheet name="Projektabschnitt 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Projektabschnitt 4" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="49">
   <si>
     <t>Projektphase</t>
   </si>
@@ -286,7 +287,38 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -436,7 +468,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A2:B37" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{24D9A206-E1ED-46B8-AD02-3DC66FEEDDD3}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -447,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A2:D39" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3E2D6C01-6062-4275-943D-E46215700AC6}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -462,7 +494,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D41" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D41" totalsRowCount="1" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FFC7A420-075D-4C78-902A-6EB93541D2AA}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -477,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12D5748C-3DE1-4B86-A3EB-B6E20C76DA41}" name="Tabelle2456" displayName="Tabelle2456" ref="A2:D41" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12D5748C-3DE1-4B86-A3EB-B6E20C76DA41}" name="Tabelle2456" displayName="Tabelle2456" ref="A2:D41" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{372AAA0D-80AC-4875-86A5-42742FC34982}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -485,6 +517,21 @@
     <tableColumn id="3" xr3:uid="{FDD6471E-564B-4BCC-8F48-39E8FEC18FE1}" name="Ist" totalsRowFunction="sum"/>
     <tableColumn id="4" xr3:uid="{4A393DA6-F053-445B-BDF4-0F7EDC825C81}" name="Differenz" totalsRowFunction="sum">
       <calculatedColumnFormula>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51BC263D-DFBF-4BB0-8D44-288095443B7D}" name="Tabelle24568" displayName="Tabelle24568" ref="A2:D41" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A3C735DA-675B-4BEA-AE93-94781FA21B1D}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
+    <tableColumn id="2" xr3:uid="{B87084F0-D5A3-418F-8FE6-FEC7EFC0243F}" name="Geplant" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{9EB98F1F-EC25-411F-B050-CC12E68D8959}" name="Ist" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{55DF4B9D-C6D7-4269-A53B-0140E4924A3D}" name="Differenz" totalsRowFunction="sum">
+      <calculatedColumnFormula>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2097,11 +2144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D4D401-ABF0-4C5C-9CC1-4F74C12FB785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D4D401-ABF0-4C5C-9CC1-4F74C12FB785}">
   <dimension ref="A2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,11 +2239,11 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
         <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2565,11 +2612,11 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="D40">
         <f>Tabelle2456[[#This Row],[Geplant]]-Tabelle2456[[#This Row],[Ist]]</f>
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,11 +2629,513 @@
       </c>
       <c r="C41">
         <f>SUBTOTAL(109,Tabelle2456[Ist])</f>
-        <v>32.5</v>
+        <v>33.25</v>
       </c>
       <c r="D41">
         <f>SUBTOTAL(109,Tabelle2456[Differenz])</f>
-        <v>191.5</v>
+        <v>190.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4283CC1-9578-4840-8644-0CA11D63C02E}">
+  <dimension ref="A2:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+      <c r="D8">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+      <c r="D14">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>2.5</v>
+      </c>
+      <c r="C16">
+        <v>1.5</v>
+      </c>
+      <c r="D16">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>12.5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3.25</v>
+      </c>
+      <c r="D18">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2.5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>8.5</v>
+      </c>
+      <c r="D30">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>5.5</v>
+      </c>
+      <c r="D35">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1.5</v>
+      </c>
+      <c r="D40">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <f>SUBTOTAL(109,Tabelle24568[Geplant])</f>
+        <v>224</v>
+      </c>
+      <c r="C41">
+        <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
+        <v>33.25</v>
+      </c>
+      <c r="D41">
+        <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
+        <v>190.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F9C5CE-555C-4B8D-9871-9F8775BAA1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87AC082-8BCD-4BC1-9D21-1915DC39F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1245" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Projektabschnitt 3" sheetId="5" r:id="rId5"/>
     <sheet name="Projektabschnitt 4" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Tabelle2[#All]</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="50">
   <si>
     <t>Projektphase</t>
   </si>
@@ -186,6 +189,9 @@
   </si>
   <si>
     <t xml:space="preserve"> a) Grundstruktur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Anpassung der Datenbank</t>
   </si>
 </sst>
 </file>
@@ -524,8 +530,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51BC263D-DFBF-4BB0-8D44-288095443B7D}" name="Tabelle24568" displayName="Tabelle24568" ref="A2:D41" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51BC263D-DFBF-4BB0-8D44-288095443B7D}" name="Tabelle24568" displayName="Tabelle24568" ref="A2:D42" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D41" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A3C735DA-675B-4BEA-AE93-94781FA21B1D}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{B87084F0-D5A3-418F-8FE6-FEC7EFC0243F}" name="Geplant" totalsRowFunction="sum"/>
@@ -804,7 +810,7 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,12 +905,12 @@
   <dimension ref="A2:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,8 +1186,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2647,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4283CC1-9578-4840-8644-0CA11D63C02E}">
-  <dimension ref="A2:D41"/>
+  <dimension ref="A2:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,11 +2733,11 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D7">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,11 +2748,11 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2928,28 +2935,28 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -2961,181 +2968,193 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>15</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>5</v>
-      </c>
-    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>8.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>20</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="D31">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>19</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>0.5</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>9</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>5.5</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>17</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>4</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>0.5</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>18</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>1.5</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <f>SUBTOTAL(109,Tabelle24568[Geplant])</f>
         <v>224</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>33.25</v>
-      </c>
-      <c r="D41">
+        <v>35</v>
+      </c>
+      <c r="D42">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>190.75</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87AC082-8BCD-4BC1-9D21-1915DC39F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0BAFA2-9E34-4ABF-960A-BCA9AA44DB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1245" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="55">
   <si>
     <t>Projektphase</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t xml:space="preserve">  Anpassung der Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> f) AI basierte Aufgabenstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e) Oberfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Formular (Ausgabe der Aufgaben, Eingabeflächen, Abgabe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  GUI/Webseite (Programmstart, Anmeldung, Übersicht Themengebiete, Aufgabe beginnen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dokumentation AI Machbarkeitsanalyse</t>
   </si>
 </sst>
 </file>
@@ -530,8 +545,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51BC263D-DFBF-4BB0-8D44-288095443B7D}" name="Tabelle24568" displayName="Tabelle24568" ref="A2:D42" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:D41" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51BC263D-DFBF-4BB0-8D44-288095443B7D}" name="Tabelle24568" displayName="Tabelle24568" ref="A2:D46" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D45" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A3C735DA-675B-4BEA-AE93-94781FA21B1D}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{B87084F0-D5A3-418F-8FE6-FEC7EFC0243F}" name="Geplant" totalsRowFunction="sum"/>
@@ -2654,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4283CC1-9578-4840-8644-0CA11D63C02E}">
-  <dimension ref="A2:D42"/>
+  <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,11 +2702,11 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D3">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2935,11 +2950,11 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,11 +2962,11 @@
         <v>49</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2959,11 +2974,11 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D26">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2971,190 +2986,235 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="D27">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>30</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>8.5</v>
-      </c>
-      <c r="D31">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>8.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>20</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
       <c r="D34">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>3.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
       <c r="D39">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>5.5</v>
       </c>
       <c r="D40">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>8.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1.5</v>
+      </c>
+      <c r="D45">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B42">
+      <c r="B46">
         <f>SUBTOTAL(109,Tabelle24568[Geplant])</f>
         <v>224</v>
       </c>
-      <c r="C42">
+      <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>35</v>
-      </c>
-      <c r="D42">
+        <v>35.5</v>
+      </c>
+      <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>189</v>
+        <v>188.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0BAFA2-9E34-4ABF-960A-BCA9AA44DB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1065D7F-DAEC-4FB3-BE7C-12D0AC0B720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -2672,7 +2672,7 @@
   <dimension ref="A2:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,9 +2952,12 @@
       <c r="B24">
         <v>12</v>
       </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
       <c r="D24">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3193,11 +3196,11 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="D45">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,11 +3213,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>35.5</v>
+        <v>37.75</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>188.5</v>
+        <v>186.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1065D7F-DAEC-4FB3-BE7C-12D0AC0B720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3D2A08-F4ED-431D-BD39-6F1C4FD19C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -2672,7 +2672,7 @@
   <dimension ref="A2:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,11 +2953,11 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D24">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,11 +3213,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>37.75</v>
+        <v>38.25</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>186.25</v>
+        <v>185.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3D2A08-F4ED-431D-BD39-6F1C4FD19C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7FD05-500D-49E7-AEA6-AC6A8E26AB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4283CC1-9578-4840-8644-0CA11D63C02E}">
   <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,9 +2967,12 @@
       <c r="B25">
         <v>3</v>
       </c>
+      <c r="C25">
+        <v>1.5</v>
+      </c>
       <c r="D25">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,9 +2982,12 @@
       <c r="B26">
         <v>7.5</v>
       </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
       <c r="D26">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,11 +3096,11 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,11 +3219,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>38.25</v>
+        <v>41.25</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>185.75</v>
+        <v>182.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE7FD05-500D-49E7-AEA6-AC6A8E26AB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A91BD7E-9C91-41AE-B21D-E647C552641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2671,7 +2671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4283CC1-9578-4840-8644-0CA11D63C02E}">
   <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2763,11 +2763,11 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D8">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,11 +3219,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>41.25</v>
+        <v>41.75</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>182.75</v>
+        <v>182.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A91BD7E-9C91-41AE-B21D-E647C552641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C48896-8D83-48DB-B56B-DFE19AC42060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2997,9 +2997,12 @@
       <c r="B27">
         <v>7.5</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>41.75</v>
+        <v>42.75</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>182.25</v>
+        <v>181.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C48896-8D83-48DB-B56B-DFE19AC42060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5E32A-7443-4188-95D0-24D1ED09452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6075" yWindow="2010" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -2998,11 +2998,11 @@
         <v>7.5</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="D27">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>42.75</v>
+        <v>43.5</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>181.25</v>
+        <v>180.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5E32A-7443-4188-95D0-24D1ED09452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27EC3EA-5825-43D7-9208-2105B2989E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6075" yWindow="2010" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2998,11 +2998,11 @@
         <v>7.5</v>
       </c>
       <c r="C27">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="D27">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>5.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>43.5</v>
+        <v>44.25</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>180.5</v>
+        <v>179.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27EC3EA-5825-43D7-9208-2105B2989E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A79CF7-81BC-40D4-B777-077F569BE27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6075" yWindow="2010" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2998,11 +2998,11 @@
         <v>7.5</v>
       </c>
       <c r="C27">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D27">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>44.25</v>
+        <v>46.25</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>179.75</v>
+        <v>177.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A79CF7-81BC-40D4-B777-077F569BE27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAB71F6-E08D-4B6B-8D34-C15EBA545E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6075" yWindow="2010" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2998,11 +2998,11 @@
         <v>7.5</v>
       </c>
       <c r="C27">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D27">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>46.25</v>
+        <v>47.25</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>177.75</v>
+        <v>176.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Desktop\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAB71F6-E08D-4B6B-8D34-C15EBA545E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7C224E-590C-45B8-A9BD-66ED515EB866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6075" yWindow="2010" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -2672,7 +2672,7 @@
   <dimension ref="A2:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,11 +3205,11 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>8.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>47.25</v>
+        <v>48.5</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>176.75</v>
+        <v>175.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Desktop\schoolProject\Documents\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7C224E-590C-45B8-A9BD-66ED515EB866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57834022-8751-4D8A-B1AB-214538128B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4283CC1-9578-4840-8644-0CA11D63C02E}">
   <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,11 +3099,11 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D36">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>175.5</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57834022-8751-4D8A-B1AB-214538128B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6201D23-6C28-4584-936D-52731B1EFFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -3099,11 +3099,11 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D36">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6201D23-6C28-4584-936D-52731B1EFFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9C99BE-C8DC-4CFA-B17D-569AAE53A078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2672,7 +2672,7 @@
   <dimension ref="A2:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,11 +3134,11 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D39">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>174</v>
+        <v>173.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9C99BE-C8DC-4CFA-B17D-569AAE53A078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F305F54-4A79-4597-8A83-B04F679B1CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4283CC1-9578-4840-8644-0CA11D63C02E}">
   <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,11 +3205,11 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="D45">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>7</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>50.5</v>
+        <v>50.75</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>173.5</v>
+        <v>173.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F305F54-4A79-4597-8A83-B04F679B1CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49552C72-36FD-4F26-8112-1B1955979D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4283CC1-9578-4840-8644-0CA11D63C02E}">
   <dimension ref="A2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,11 +3149,11 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,11 +3222,11 @@
       </c>
       <c r="C46">
         <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>50.75</v>
+        <v>51.25</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>173.25</v>
+        <v>172.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49552C72-36FD-4F26-8112-1B1955979D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D633E0-2386-4364-9EC2-DEF3F3C68736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Projektabschnitt 2" sheetId="4" r:id="rId4"/>
     <sheet name="Projektabschnitt 3" sheetId="5" r:id="rId5"/>
     <sheet name="Projektabschnitt 4" sheetId="7" r:id="rId6"/>
+    <sheet name="Projektabschnitt 5" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Tabelle2[#All]</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="56">
   <si>
     <t>Projektphase</t>
   </si>
@@ -207,6 +208,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Dokumentation AI Machbarkeitsanalyse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Programmcode pflegen und säubern</t>
   </si>
 </sst>
 </file>
@@ -308,7 +312,38 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -489,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A2:B37" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{24D9A206-E1ED-46B8-AD02-3DC66FEEDDD3}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -500,7 +535,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A2:D39" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3E2D6C01-6062-4275-943D-E46215700AC6}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -515,7 +550,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D41" totalsRowCount="1" headerRowDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D41" totalsRowCount="1" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FFC7A420-075D-4C78-902A-6EB93541D2AA}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -530,7 +565,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12D5748C-3DE1-4B86-A3EB-B6E20C76DA41}" name="Tabelle2456" displayName="Tabelle2456" ref="A2:D41" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12D5748C-3DE1-4B86-A3EB-B6E20C76DA41}" name="Tabelle2456" displayName="Tabelle2456" ref="A2:D41" totalsRowCount="1" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{372AAA0D-80AC-4875-86A5-42742FC34982}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -545,14 +580,29 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51BC263D-DFBF-4BB0-8D44-288095443B7D}" name="Tabelle24568" displayName="Tabelle24568" ref="A2:D46" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:D45" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51BC263D-DFBF-4BB0-8D44-288095443B7D}" name="Tabelle24568" displayName="Tabelle24568" ref="A2:D47" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A2:D46" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A3C735DA-675B-4BEA-AE93-94781FA21B1D}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{B87084F0-D5A3-418F-8FE6-FEC7EFC0243F}" name="Geplant" totalsRowFunction="sum"/>
     <tableColumn id="3" xr3:uid="{9EB98F1F-EC25-411F-B050-CC12E68D8959}" name="Ist" totalsRowFunction="sum"/>
     <tableColumn id="4" xr3:uid="{55DF4B9D-C6D7-4269-A53B-0140E4924A3D}" name="Differenz" totalsRowFunction="sum">
       <calculatedColumnFormula>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84EA0C37-3D8A-4556-AD4E-202665425991}" name="Tabelle245687" displayName="Tabelle245687" ref="A2:D47" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D46" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{662BF717-9FB1-4808-8ECD-D33C677B99D9}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
+    <tableColumn id="2" xr3:uid="{AD7FE048-37BD-4DEB-BDC1-87EC278FC0AD}" name="Geplant" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{6DDC0353-9C56-4CE3-B584-6E31E074B5FF}" name="Ist" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{98287FA1-7AFC-4032-BD01-7F31630D7F30}" name="Differenz" totalsRowFunction="sum">
+      <calculatedColumnFormula>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2669,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4283CC1-9578-4840-8644-0CA11D63C02E}">
-  <dimension ref="A2:D46"/>
+  <dimension ref="A2:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,226 +3057,820 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>0.25</v>
       </c>
       <c r="D28">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>22</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
         <v>22</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>12.5</v>
+      </c>
+      <c r="D35">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>3.5</v>
+      </c>
+      <c r="D37">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>1.5</v>
+      </c>
+      <c r="D40">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="D45">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>3.25</v>
+      </c>
+      <c r="D46">
+        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <f>SUBTOTAL(109,Tabelle24568[Geplant])</f>
+        <v>224</v>
+      </c>
+      <c r="C47">
+        <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
+        <v>51.5</v>
+      </c>
+      <c r="D47">
+        <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
+        <v>172.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
+  <dimension ref="A2:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6.5</v>
+      </c>
+      <c r="D3">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7">
+        <v>1.25</v>
+      </c>
+      <c r="D7">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>5.5</v>
+      </c>
+      <c r="D8">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+      <c r="D14">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>2.5</v>
+      </c>
+      <c r="C16">
+        <v>1.5</v>
+      </c>
+      <c r="D16">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>12.5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3.25</v>
+      </c>
+      <c r="D18">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2.5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>2.5</v>
+      </c>
+      <c r="D24">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1.5</v>
+      </c>
+      <c r="D25">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>7.5</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>7.5</v>
+      </c>
+      <c r="C27">
+        <v>5.5</v>
+      </c>
+      <c r="D27">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>0.25</v>
+      </c>
+      <c r="D28">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>12.5</v>
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D35">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>12</v>
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>12.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>16.5</v>
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>3.5</v>
+      </c>
+      <c r="D37">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0.5</v>
-      </c>
-      <c r="D38">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D39">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>2.5</v>
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="D40">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>3</v>
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
       </c>
       <c r="D41">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>2</v>
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="D45">
-        <f>Tabelle24568[[#This Row],[Geplant]]-Tabelle24568[[#This Row],[Ist]]</f>
-        <v>6.75</v>
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>3.25</v>
+      </c>
+      <c r="D46">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B46">
-        <f>SUBTOTAL(109,Tabelle24568[Geplant])</f>
+      <c r="B47">
+        <f>SUBTOTAL(109,Tabelle245687[Geplant])</f>
         <v>224</v>
       </c>
-      <c r="C46">
-        <f>SUBTOTAL(109,Tabelle24568[Ist])</f>
-        <v>51.25</v>
-      </c>
-      <c r="D46">
-        <f>SUBTOTAL(109,Tabelle24568[Differenz])</f>
-        <v>172.75</v>
+      <c r="C47">
+        <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
+        <v>51.5</v>
+      </c>
+      <c r="D47">
+        <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
+        <v>172.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D633E0-2386-4364-9EC2-DEF3F3C68736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B02587-4AF7-478A-A7FC-DDCD7F34C8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2721,7 +2721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4283CC1-9578-4840-8644-0CA11D63C02E}">
   <dimension ref="A2:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3303,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="D7">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,11 +3395,11 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D8">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3866,11 +3866,11 @@
       </c>
       <c r="C47">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>51.5</v>
+        <v>52</v>
       </c>
       <c r="D47">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>172.5</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B02587-4AF7-478A-A7FC-DDCD7F34C8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7AD16A-51EE-471A-A8F8-FD966CD544B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3304,7 +3304,7 @@
   <dimension ref="A2:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3866,11 +3866,11 @@
       </c>
       <c r="C47">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>52</v>
+        <v>52.5</v>
       </c>
       <c r="D47">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>172</v>
+        <v>171.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7AD16A-51EE-471A-A8F8-FD966CD544B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA053889-153D-4BFF-AD24-C5D05782261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="58">
   <si>
     <t>Projektphase</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t xml:space="preserve">  Programmcode pflegen und säubern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c) Python flask, Webdesign, …</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d) Sonstige Themen (Nachbearbeitung, Auffrischung, …)</t>
   </si>
 </sst>
 </file>
@@ -595,8 +601,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84EA0C37-3D8A-4556-AD4E-202665425991}" name="Tabelle245687" displayName="Tabelle245687" ref="A2:D47" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:D46" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84EA0C37-3D8A-4556-AD4E-202665425991}" name="Tabelle245687" displayName="Tabelle245687" ref="A2:D48" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D47" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{662BF717-9FB1-4808-8ECD-D33C677B99D9}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{AD7FE048-37BD-4DEB-BDC1-87EC278FC0AD}" name="Geplant" totalsRowFunction="sum"/>
@@ -3301,10 +3307,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
-  <dimension ref="A2:D47"/>
+  <dimension ref="A2:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,81 +3382,81 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
       <c r="C7">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="D7">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>-2</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
+      <c r="A8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>4.25</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>5.75</v>
+      </c>
+      <c r="D9">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>4.25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>0.5</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
@@ -3459,418 +3465,433 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C14">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>-1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+      <c r="D15">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16">
-        <v>2.5</v>
-      </c>
-      <c r="C16">
-        <v>1.5</v>
-      </c>
-      <c r="D16">
-        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B17">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D17">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>11.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="C18">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>1.75</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3.25</v>
       </c>
       <c r="D19">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>2.5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>12</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>2.5</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>1.5</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>7.5</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>0.5</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>7.5</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>5.5</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>0.25</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>-0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30">
-        <v>16</v>
-      </c>
-      <c r="D30">
-        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>16</v>
-      </c>
-    </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>22</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="D34">
-        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>5</v>
-      </c>
-    </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>12.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D36">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>16.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>3.5</v>
+      </c>
+      <c r="D38">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>14</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>0.5</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>15</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>4</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>1.5</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>16</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>9</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>6</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>17</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>19</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>4</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>0.5</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>3.25</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>6.75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <f>SUBTOTAL(109,Tabelle245687[Geplant])</f>
         <v>224</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>52.5</v>
-      </c>
-      <c r="D47">
+        <v>53.25</v>
+      </c>
+      <c r="D48">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>171.5</v>
+        <v>170.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA053889-153D-4BFF-AD24-C5D05782261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A47156-04FF-420F-BEC9-A6253C9FC661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3310,7 +3310,7 @@
   <dimension ref="A2:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,11 +3388,11 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D7">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,11 +3887,11 @@
       </c>
       <c r="C48">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>53.25</v>
+        <v>53.75</v>
       </c>
       <c r="D48">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>170.75</v>
+        <v>170.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A47156-04FF-420F-BEC9-A6253C9FC661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C3A24-4A53-4C36-B71F-5C7B5BD6E6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3310,7 +3310,7 @@
   <dimension ref="A2:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,11 +3388,11 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="D7">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,11 +3887,11 @@
       </c>
       <c r="C48">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>170.25</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0C3A24-4A53-4C36-B71F-5C7B5BD6E6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D8C810-C1C3-4B0E-8E69-D792A9F1E55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3309,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3870,11 +3870,11 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D47">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,11 +3887,11 @@
       </c>
       <c r="C48">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>55</v>
+        <v>55.25</v>
       </c>
       <c r="D48">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>169</v>
+        <v>168.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D8C810-C1C3-4B0E-8E69-D792A9F1E55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66710D07-090A-41B4-8345-88F3CE6C8F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="59">
   <si>
     <t>Projektphase</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t xml:space="preserve"> d) Sonstige Themen (Nachbearbeitung, Auffrischung, …)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Test kleine Webseite input/output</t>
   </si>
 </sst>
 </file>
@@ -601,8 +604,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84EA0C37-3D8A-4556-AD4E-202665425991}" name="Tabelle245687" displayName="Tabelle245687" ref="A2:D48" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:D47" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84EA0C37-3D8A-4556-AD4E-202665425991}" name="Tabelle245687" displayName="Tabelle245687" ref="A2:D49" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D48" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{662BF717-9FB1-4808-8ECD-D33C677B99D9}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{AD7FE048-37BD-4DEB-BDC1-87EC278FC0AD}" name="Geplant" totalsRowFunction="sum"/>
@@ -3307,10 +3310,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
-  <dimension ref="A2:D48"/>
+  <dimension ref="A2:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,217 +3684,232 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1.5</v>
       </c>
       <c r="D31">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>14</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>22</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>12.5</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>12.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>12</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>13</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>20</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>3.5</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>16.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0.5</v>
-      </c>
-      <c r="D40">
-        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D41">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="D42">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
       </c>
       <c r="D43">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>19</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>4</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46">
-        <v>0.5</v>
-      </c>
-      <c r="D46">
-        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>0.5</v>
-      </c>
-    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B47">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="D47">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>3.75</v>
+      </c>
+      <c r="D48">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>9</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <f>SUBTOTAL(109,Tabelle245687[Geplant])</f>
         <v>224</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>55.25</v>
-      </c>
-      <c r="D48">
+        <v>57</v>
+      </c>
+      <c r="D49">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>168.75</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66710D07-090A-41B4-8345-88F3CE6C8F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06570F7-ED5B-4442-9CFC-F2F002BD0F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="3240" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="3930" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -3690,11 +3690,11 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="D31">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3905,11 +3905,11 @@
       </c>
       <c r="C49">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>57</v>
+        <v>57.25</v>
       </c>
       <c r="D49">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>167</v>
+        <v>166.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06570F7-ED5B-4442-9CFC-F2F002BD0F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B074A97-176F-4D4C-89E1-9CD99D3BAAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6195" yWindow="3930" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3313,7 +3313,7 @@
   <dimension ref="A2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,11 +3690,11 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="D31">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3905,11 +3905,11 @@
       </c>
       <c r="C49">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>57.25</v>
+        <v>58</v>
       </c>
       <c r="D49">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>166.75</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B074A97-176F-4D4C-89E1-9CD99D3BAAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFDA1A6-D020-4F00-B8C4-67457A87168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6195" yWindow="3930" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3313,7 +3313,7 @@
   <dimension ref="A2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,9 +3704,12 @@
       <c r="B32">
         <v>12</v>
       </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
       <c r="D32">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3905,11 +3908,11 @@
       </c>
       <c r="C49">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>58</v>
+        <v>58.5</v>
       </c>
       <c r="D49">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>166</v>
+        <v>165.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFDA1A6-D020-4F00-B8C4-67457A87168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD308D-7A98-408A-8102-1F2D59AB274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6195" yWindow="3930" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3313,7 +3313,7 @@
   <dimension ref="A2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,11 +3419,11 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="D9">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,11 +3705,11 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="D32">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="C49">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>58.5</v>
+        <v>59.75</v>
       </c>
       <c r="D49">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>165.5</v>
+        <v>164.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD308D-7A98-408A-8102-1F2D59AB274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A564920-892B-41CE-85B3-B7EDD0C41EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="3930" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -3313,7 +3313,7 @@
   <dimension ref="A2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,11 +3705,11 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="D32">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,11 +3908,11 @@
       </c>
       <c r="C49">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>59.75</v>
+        <v>61.25</v>
       </c>
       <c r="D49">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>164.25</v>
+        <v>162.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A564920-892B-41CE-85B3-B7EDD0C41EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD1FD8-B754-45E3-B3D8-24DB55B234E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="60">
   <si>
     <t>Projektphase</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Test kleine Webseite input/output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Einarbeitung in das Programm und die Datenbank</t>
   </si>
 </sst>
 </file>
@@ -604,8 +607,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84EA0C37-3D8A-4556-AD4E-202665425991}" name="Tabelle245687" displayName="Tabelle245687" ref="A2:D49" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:D48" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84EA0C37-3D8A-4556-AD4E-202665425991}" name="Tabelle245687" displayName="Tabelle245687" ref="A2:D50" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D49" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{662BF717-9FB1-4808-8ECD-D33C677B99D9}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{AD7FE048-37BD-4DEB-BDC1-87EC278FC0AD}" name="Geplant" totalsRowFunction="sum"/>
@@ -3310,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
-  <dimension ref="A2:D49"/>
+  <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3702,14 +3705,14 @@
         <v>53</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>9.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3726,193 +3729,205 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>22</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>12.5</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>12.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>12</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>20</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>3.5</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>16.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0.5</v>
-      </c>
-      <c r="D41">
-        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D42">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="D43">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
       </c>
       <c r="D44">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>19</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>4</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47">
-        <v>0.5</v>
-      </c>
-      <c r="D47">
-        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>0.5</v>
-      </c>
-    </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="D48">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>6.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <f>SUBTOTAL(109,Tabelle245687[Geplant])</f>
         <v>224</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>61.25</v>
-      </c>
-      <c r="D49">
+        <v>62.75</v>
+      </c>
+      <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>162.75</v>
+        <v>161.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD1FD8-B754-45E3-B3D8-24DB55B234E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE92D11-5D0C-4682-AD4C-AC6EFE0E0B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3722,9 +3722,12 @@
       <c r="B33">
         <v>4</v>
       </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
       <c r="D33">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3923,11 +3926,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>62.75</v>
+        <v>63.25</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>161.25</v>
+        <v>160.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE92D11-5D0C-4682-AD4C-AC6EFE0E0B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8BDEA3-1379-4D05-A6B5-5AB54491DAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,9 +3737,12 @@
       <c r="B34">
         <v>4</v>
       </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3926,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>63.25</v>
+        <v>64.25</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>160.75</v>
+        <v>159.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8BDEA3-1379-4D05-A6B5-5AB54491DAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3667A-9CEA-46C8-B630-D43B23DF1B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3315,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,11 +3394,11 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="D7">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>64.25</v>
+        <v>64.75</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>159.75</v>
+        <v>159.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3667A-9CEA-46C8-B630-D43B23DF1B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3A57E-89DA-4A23-96C1-7E38484D26E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3315,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,11 +3394,11 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="D7">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2.75</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>64.75</v>
+        <v>69</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>159.25</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3A57E-89DA-4A23-96C1-7E38484D26E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F060E9-F4B3-4D14-A0A7-D64FB218E84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>69</v>
+        <v>69.25</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>155</v>
+        <v>154.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F060E9-F4B3-4D14-A0A7-D64FB218E84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246443F4-E89D-452C-AF05-E72609DC34C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>4.75</v>
+        <v>6.75</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>69.25</v>
+        <v>71.25</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>154.75</v>
+        <v>152.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246443F4-E89D-452C-AF05-E72609DC34C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197C4F5-6871-4E8C-BDB6-023009EFD1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197C4F5-6871-4E8C-BDB6-023009EFD1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405C92B-01AD-4404-8704-0CFC8B1C485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -3315,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>6.75</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>-2.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,11 +3806,11 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="D40">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>71.25</v>
+        <v>72.5</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>152.75</v>
+        <v>151.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405C92B-01AD-4404-8704-0CFC8B1C485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D57AC1-849D-4378-B717-B5E67D0171B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,11 +3806,11 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="D40">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>72.5</v>
+        <v>73.75</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>151.5</v>
+        <v>150.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D57AC1-849D-4378-B717-B5E67D0171B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C8D76-7BEC-48DE-930D-9747BEC63F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>73.75</v>
+        <v>74.25</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>150.25</v>
+        <v>149.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C8D76-7BEC-48DE-930D-9747BEC63F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E0151D-2F05-4A63-9E82-9E52A92A5343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3315,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,11 +3394,11 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>74.25</v>
+        <v>75.5</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>149.75</v>
+        <v>148.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E0151D-2F05-4A63-9E82-9E52A92A5343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E17B5E5-ECF2-4BC9-879F-DD418B0F9838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E17B5E5-ECF2-4BC9-879F-DD418B0F9838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5C835-8A80-4879-B805-A811AE17708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3315,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,11 +3806,11 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="D40">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>75.5</v>
+        <v>76.5</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>148.5</v>
+        <v>147.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D5C835-8A80-4879-B805-A811AE17708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177E91D4-66C5-42AB-BC63-74171D61A6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3315,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,11 +3422,11 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="D9">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>76.5</v>
+        <v>76.75</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>147.5</v>
+        <v>147.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177E91D4-66C5-42AB-BC63-74171D61A6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD5414-5773-49FC-A4D8-C1090FF27518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -3315,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,11 +3806,11 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>76.75</v>
+        <v>77.25</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>147.25</v>
+        <v>146.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD5414-5773-49FC-A4D8-C1090FF27518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29A711-C947-4292-92EB-84858A127418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>77.25</v>
+        <v>77.75</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>146.75</v>
+        <v>146.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29A711-C947-4292-92EB-84858A127418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82933B-9A2F-4C9E-909E-615323FDA960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>77.75</v>
+        <v>78.25</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>146.25</v>
+        <v>145.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82933B-9A2F-4C9E-909E-615323FDA960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C524C-30CF-4A6C-966D-04A79C510577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>78.25</v>
+        <v>78.75</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>145.75</v>
+        <v>145.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C524C-30CF-4A6C-966D-04A79C510577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E06D9-C1F0-4869-9B90-1E5B3D473C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,11 +3708,11 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="D32">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>78.75</v>
+        <v>79.5</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>145.25</v>
+        <v>144.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80E06D9-C1F0-4869-9B90-1E5B3D473C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7EEDDD-1674-47CB-9C62-81100764AFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3708,11 +3708,11 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="D32">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>79.5</v>
+        <v>80.25</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>144.5</v>
+        <v>143.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7EEDDD-1674-47CB-9C62-81100764AFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0A616-C03F-423B-9BEE-3B46C157F52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,11 +3806,11 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>80.25</v>
+        <v>81.25</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>143.75</v>
+        <v>142.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0A616-C03F-423B-9BEE-3B46C157F52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE29F6C-A28F-4BAD-9DFA-BA24B6C45325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,11 +3708,11 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>81.25</v>
+        <v>81.75</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>142.75</v>
+        <v>142.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE29F6C-A28F-4BAD-9DFA-BA24B6C45325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C7475-7876-4B5D-8816-4B6BD75A018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,11 +3708,11 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="D32">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>81.75</v>
+        <v>82.5</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>142.25</v>
+        <v>141.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C7475-7876-4B5D-8816-4B6BD75A018B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F3BD2-06B3-4F5E-A3C0-4AB85917DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,11 +3708,11 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,11 +3738,11 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3912,11 +3912,11 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="D49">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>6</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>82.5</v>
+        <v>83.25</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>141.5</v>
+        <v>140.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648F3BD2-06B3-4F5E-A3C0-4AB85917DE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A4A2A4-FC36-4CD9-917E-42C7DDF7DE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -3315,7 +3315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A4A2A4-FC36-4CD9-917E-42C7DDF7DE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4812234-31E3-452B-B901-57DCB3167638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3315,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3723,11 +3723,11 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>83.25</v>
+        <v>83.75</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>140.75</v>
+        <v>140.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4812234-31E3-452B-B901-57DCB3167638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A630567-F3B8-45B9-A7BD-54E734E8557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="4365" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -3315,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,11 +3856,11 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="D44">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>83.75</v>
+        <v>84.5</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A630567-F3B8-45B9-A7BD-54E734E8557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C08A83-0825-4CA0-B62C-CA7C0C14A0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="4365" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3315,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3669,11 +3669,11 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D29">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,11 +3841,11 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3856,11 +3856,11 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="D44">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>2.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3912,11 +3912,11 @@
         <v>10</v>
       </c>
       <c r="C49">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="D49">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>84.5</v>
+        <v>85.75</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>139.5</v>
+        <v>138.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C08A83-0825-4CA0-B62C-CA7C0C14A0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EFF56-8484-4429-B79D-E8E278D33ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="4365" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3316,7 +3316,7 @@
   <dimension ref="A2:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,11 +3806,11 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40">
         <f>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="C50">
         <f>SUBTOTAL(109,Tabelle245687[Ist])</f>
-        <v>85.75</v>
+        <v>86.75</v>
       </c>
       <c r="D50">
         <f>SUBTOTAL(109,Tabelle245687[Differenz])</f>
-        <v>138.25</v>
+        <v>137.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EFF56-8484-4429-B79D-E8E278D33ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC284688-41CC-4C15-955F-D5C1736C123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4365" windowWidth="21600" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="4365" windowWidth="21600" windowHeight="11835" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Projektabschnitt 3" sheetId="5" r:id="rId5"/>
     <sheet name="Projektabschnitt 4" sheetId="7" r:id="rId6"/>
     <sheet name="Projektabschnitt 5" sheetId="8" r:id="rId7"/>
+    <sheet name="Projektabschnitt 6" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Tabelle2[#All]</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="60">
   <si>
     <t>Projektphase</t>
   </si>
@@ -324,7 +325,38 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -536,7 +568,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}" name="Tabelle2" displayName="Tabelle2" ref="A2:B38" totalsRowCount="1" headerRowDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A2:B37" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{24D9A206-E1ED-46B8-AD02-3DC66FEEDDD3}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -547,7 +579,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C0BD79-E66C-46D8-A9EA-0C25BAA70075}" name="Tabelle24" displayName="Tabelle24" ref="A2:D40" totalsRowCount="1" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A2:D39" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3E2D6C01-6062-4275-943D-E46215700AC6}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -562,7 +594,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D41" totalsRowCount="1" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3A7DDAC-729F-4EE9-A55A-B6439F4EAC85}" name="Tabelle245" displayName="Tabelle245" ref="A2:D41" totalsRowCount="1" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FFC7A420-075D-4C78-902A-6EB93541D2AA}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -577,7 +609,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12D5748C-3DE1-4B86-A3EB-B6E20C76DA41}" name="Tabelle2456" displayName="Tabelle2456" ref="A2:D41" totalsRowCount="1" headerRowDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{12D5748C-3DE1-4B86-A3EB-B6E20C76DA41}" name="Tabelle2456" displayName="Tabelle2456" ref="A2:D41" totalsRowCount="1" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A2:D40" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{372AAA0D-80AC-4875-86A5-42742FC34982}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -592,7 +624,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51BC263D-DFBF-4BB0-8D44-288095443B7D}" name="Tabelle24568" displayName="Tabelle24568" ref="A2:D47" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51BC263D-DFBF-4BB0-8D44-288095443B7D}" name="Tabelle24568" displayName="Tabelle24568" ref="A2:D47" totalsRowCount="1" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A2:D46" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A3C735DA-675B-4BEA-AE93-94781FA21B1D}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -607,7 +639,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84EA0C37-3D8A-4556-AD4E-202665425991}" name="Tabelle245687" displayName="Tabelle245687" ref="A2:D50" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84EA0C37-3D8A-4556-AD4E-202665425991}" name="Tabelle245687" displayName="Tabelle245687" ref="A2:D50" totalsRowCount="1" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A2:D49" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{662BF717-9FB1-4808-8ECD-D33C677B99D9}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
@@ -615,6 +647,21 @@
     <tableColumn id="3" xr3:uid="{6DDC0353-9C56-4CE3-B584-6E31E074B5FF}" name="Ist" totalsRowFunction="sum"/>
     <tableColumn id="4" xr3:uid="{98287FA1-7AFC-4032-BD01-7F31630D7F30}" name="Differenz" totalsRowFunction="sum">
       <calculatedColumnFormula>Tabelle245687[[#This Row],[Geplant]]-Tabelle245687[[#This Row],[Ist]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{310E0B4A-7969-44EB-BD62-669E4FA77639}" name="Tabelle2456879" displayName="Tabelle2456879" ref="A2:D50" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D49" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9C36619B-B872-4A92-B09D-B5094B593063}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
+    <tableColumn id="2" xr3:uid="{E09C10A3-37C4-45DB-BF4A-791E3E776F49}" name="Geplant" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{53FA2E21-1BAE-47E4-9630-48B5A953611B}" name="Ist" totalsRowFunction="sum"/>
+    <tableColumn id="4" xr3:uid="{23DDC2BF-6161-4350-8290-EDCB19AC6BEB}" name="Differenz" totalsRowFunction="sum">
+      <calculatedColumnFormula>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3315,7 +3362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E002C3-AD10-485D-929B-ACE9922C7AED}">
   <dimension ref="A2:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -3942,4 +3989,637 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CE5871-4189-4DE6-9241-C2CEBF98FDE7}">
+  <dimension ref="A2:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6.5</v>
+      </c>
+      <c r="D3">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4.5</v>
+      </c>
+      <c r="D7">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>6.5</v>
+      </c>
+      <c r="D9">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1.5</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+      <c r="D15">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>2.5</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>12.5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>3.25</v>
+      </c>
+      <c r="D19">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>2.5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>2.5</v>
+      </c>
+      <c r="D25">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1.5</v>
+      </c>
+      <c r="D26">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>7.5</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>7.5</v>
+      </c>
+      <c r="C28">
+        <v>5.5</v>
+      </c>
+      <c r="D28">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>2.5</v>
+      </c>
+      <c r="D31">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>12.5</v>
+      </c>
+      <c r="D38">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>4.5</v>
+      </c>
+      <c r="D49">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <f>SUBTOTAL(109,Tabelle2456879[Geplant])</f>
+        <v>224</v>
+      </c>
+      <c r="C50">
+        <f>SUBTOTAL(109,Tabelle2456879[Ist])</f>
+        <v>86.75</v>
+      </c>
+      <c r="D50">
+        <f>SUBTOTAL(109,Tabelle2456879[Differenz])</f>
+        <v>137.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC284688-41CC-4C15-955F-D5C1736C123E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E927F43-414B-4234-A936-E2CC2A893EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="4365" windowWidth="21600" windowHeight="11835" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="61">
   <si>
     <t>Projektphase</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Einarbeitung in das Programm und die Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AI Probeprogramm zum einarbeiten</t>
   </si>
 </sst>
 </file>
@@ -654,8 +657,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{310E0B4A-7969-44EB-BD62-669E4FA77639}" name="Tabelle2456879" displayName="Tabelle2456879" ref="A2:D50" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:D49" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{310E0B4A-7969-44EB-BD62-669E4FA77639}" name="Tabelle2456879" displayName="Tabelle2456879" ref="A2:D51" totalsRowCount="1" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:D50" xr:uid="{0CE74EBA-7DE6-4D07-B11E-D63224CEB0A1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C36619B-B872-4A92-B09D-B5094B593063}" name="Projektphase" totalsRowLabel="Gesamtstunden"/>
     <tableColumn id="2" xr3:uid="{E09C10A3-37C4-45DB-BF4A-791E3E776F49}" name="Geplant" totalsRowFunction="sum"/>
@@ -3993,10 +3996,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CE5871-4189-4DE6-9241-C2CEBF98FDE7}">
-  <dimension ref="A2:D50"/>
+  <dimension ref="A2:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4059,11 +4062,14 @@
         <v>35</v>
       </c>
       <c r="B6" s="5">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
       </c>
       <c r="D6">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>10</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4085,7 +4091,9 @@
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>2</v>
       </c>
@@ -4102,11 +4110,11 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4348,6 +4356,9 @@
       <c r="A29" t="s">
         <v>55</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>0.5</v>
       </c>
@@ -4432,111 +4443,108 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>12.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="D39">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>12</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="C40">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0.5</v>
-      </c>
-      <c r="D42">
-        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D43">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
@@ -4545,10 +4553,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
       </c>
       <c r="D45">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
@@ -4557,63 +4568,75 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>19</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>4</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48">
-        <v>0.5</v>
-      </c>
-      <c r="D48">
-        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>0.5</v>
-      </c>
-    </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="D49">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>4.5</v>
+      </c>
+      <c r="D50">
+        <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <f>SUBTOTAL(109,Tabelle2456879[Geplant])</f>
         <v>224</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <f>SUBTOTAL(109,Tabelle2456879[Ist])</f>
-        <v>86.75</v>
-      </c>
-      <c r="D50">
+        <v>87.75</v>
+      </c>
+      <c r="D51">
         <f>SUBTOTAL(109,Tabelle2456879[Differenz])</f>
-        <v>137.25</v>
+        <v>136.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E927F43-414B-4234-A936-E2CC2A893EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F5153-841C-4042-B2B8-51C8293206B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="4365" windowWidth="21600" windowHeight="11835" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3999,7 +3999,7 @@
   <dimension ref="A2:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,11 +4065,11 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4615,11 +4615,11 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="D50">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4632,11 +4632,11 @@
       </c>
       <c r="C51">
         <f>SUBTOTAL(109,Tabelle2456879[Ist])</f>
-        <v>87.75</v>
+        <v>90</v>
       </c>
       <c r="D51">
         <f>SUBTOTAL(109,Tabelle2456879[Differenz])</f>
-        <v>136.25</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6F5153-841C-4042-B2B8-51C8293206B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7010A-CE3C-4AD1-AD7A-DADDF950D607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4365" windowWidth="21600" windowHeight="11835" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -940,13 +940,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -962,7 +962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -970,7 +970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -978,7 +978,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -986,7 +986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -994,7 +994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1035,12 +1035,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,13 +1056,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1086,17 +1086,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1120,12 +1120,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1149,12 +1149,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1170,12 +1170,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1199,12 +1199,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1236,12 +1236,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1273,12 +1273,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1328,12 +1328,12 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1362,13 +1362,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1420,17 +1420,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1490,12 +1490,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1531,12 +1531,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1560,12 +1560,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1601,12 +1601,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1657,12 +1657,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1713,12 +1713,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1790,12 +1790,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1885,17 +1885,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1955,12 +1955,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2020,12 +2020,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2049,12 +2049,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2090,12 +2090,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2146,12 +2146,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2208,12 +2208,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2285,12 +2285,12 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -2319,13 +2319,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2380,17 +2380,17 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2450,12 +2450,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2515,12 +2515,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2550,12 +2550,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2591,12 +2591,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2647,12 +2647,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2709,12 +2709,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2787,12 +2787,12 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -2821,13 +2821,13 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2882,17 +2882,17 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2952,12 +2952,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3017,12 +3017,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3052,12 +3052,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -3162,12 +3162,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3230,12 +3230,12 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -3292,12 +3292,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3369,12 +3369,12 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -3403,13 +3403,13 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3479,17 +3479,17 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -3549,12 +3549,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3614,12 +3614,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3649,12 +3649,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3795,12 +3795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -3863,12 +3863,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -3925,12 +3925,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3996,18 +3996,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CE5871-4189-4DE6-9241-C2CEBF98FDE7}">
-  <dimension ref="A2:D51"/>
+  <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -4036,13 +4036,13 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -4071,8 +4071,11 @@
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -4087,7 +4090,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4117,17 +4120,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -4187,12 +4190,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4252,12 +4255,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4287,12 +4290,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -4307,7 +4310,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -4406,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -4436,12 +4439,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4516,12 +4519,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -4578,12 +4581,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4595,7 +4598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>

--- a/Documents/Dokumentation/Projektphasen.xlsx
+++ b/Documents/Dokumentation/Projektphasen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7010A-CE3C-4AD1-AD7A-DADDF950D607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD87BE33-8E16-4669-96E8-64527EA30512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vorl. Antrag" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="76">
   <si>
     <t>Projektphase</t>
   </si>
@@ -227,13 +227,58 @@
   </si>
   <si>
     <t xml:space="preserve">  AI Probeprogramm zum einarbeiten</t>
+  </si>
+  <si>
+    <t>KW27</t>
+  </si>
+  <si>
+    <t>KW28</t>
+  </si>
+  <si>
+    <t>KW29</t>
+  </si>
+  <si>
+    <t>KW30</t>
+  </si>
+  <si>
+    <t>KW31</t>
+  </si>
+  <si>
+    <t>KW33</t>
+  </si>
+  <si>
+    <t>KW34</t>
+  </si>
+  <si>
+    <t>KW35</t>
+  </si>
+  <si>
+    <t>KW36</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Umsetzung</t>
+  </si>
+  <si>
+    <t>dav. Unterricht</t>
+  </si>
+  <si>
+    <t>Projekt</t>
+  </si>
+  <si>
+    <t>Schulferien</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +290,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -940,13 +991,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -954,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -962,7 +1013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -970,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -978,7 +1029,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -986,7 +1037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -994,7 +1045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1002,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1035,12 +1086,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,13 +1107,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -1070,7 +1121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1078,7 +1129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1086,17 +1137,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1104,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1120,12 +1171,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1133,7 +1184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1141,7 +1192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1149,12 +1200,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1162,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1170,12 +1221,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1191,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1199,12 +1250,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1212,7 +1263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1220,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1228,7 +1279,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1236,12 +1287,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1249,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1265,7 +1316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1273,12 +1324,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1286,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1328,12 +1379,12 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1362,13 +1413,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -1380,7 +1431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1405,7 +1456,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1420,17 +1471,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1445,7 +1496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1460,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1490,12 +1541,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1507,7 +1558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1519,7 +1570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1531,12 +1582,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1548,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1560,12 +1611,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1577,7 +1628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1589,7 +1640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1601,12 +1652,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1618,7 +1669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1630,7 +1681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1642,7 +1693,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1657,12 +1708,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1677,7 +1728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1689,7 +1740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1701,7 +1752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1713,12 +1764,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1730,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1742,7 +1793,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1757,7 +1808,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1790,12 +1841,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1824,13 +1875,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -1845,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1857,7 +1908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1870,7 +1921,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1885,17 +1936,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1910,7 +1961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1925,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1940,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1955,12 +2006,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1975,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1990,7 +2041,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2005,7 +2056,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2020,12 +2071,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2037,7 +2088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2049,12 +2100,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2066,7 +2117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +2129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2090,12 +2141,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2107,7 +2158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2119,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2131,7 +2182,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2146,12 +2197,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2166,7 +2217,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2181,7 +2232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2196,7 +2247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2208,12 +2259,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2225,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2237,7 +2288,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2252,7 +2303,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2285,12 +2336,12 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -2319,13 +2370,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -2340,7 +2391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2352,7 +2403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -2365,7 +2416,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2380,17 +2431,17 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2405,7 +2456,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2420,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2435,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2450,12 +2501,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2470,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2485,7 +2536,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2500,7 +2551,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2515,12 +2566,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2535,7 +2586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2550,12 +2601,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2567,7 +2618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2579,7 +2630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2591,12 +2642,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2608,7 +2659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2620,7 +2671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2632,7 +2683,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2647,12 +2698,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2682,7 +2733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2697,7 +2748,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2709,12 +2760,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2726,7 +2777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2738,7 +2789,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2753,7 +2804,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2787,12 +2838,12 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2857,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -2821,13 +2872,13 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -2842,7 +2893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2854,7 +2905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -2867,7 +2918,7 @@
         <v>-1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2882,17 +2933,17 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2907,7 +2958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2922,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2937,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2952,12 +3003,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2972,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2987,7 +3038,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3002,7 +3053,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3017,12 +3068,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3037,7 +3088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3052,12 +3103,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3072,7 +3123,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3087,7 +3138,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -3102,7 +3153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -3117,7 +3168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3129,7 +3180,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -3138,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -3150,7 +3201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -3162,12 +3213,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3179,7 +3230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3191,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3203,7 +3254,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -3215,7 +3266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3230,12 +3281,12 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3250,7 +3301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3265,7 +3316,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -3280,7 +3331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -3292,12 +3343,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3309,7 +3360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -3321,7 +3372,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -3336,7 +3387,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3369,12 +3420,12 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +3439,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -3403,13 +3454,13 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -3424,7 +3475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -3436,7 +3487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -3451,7 +3502,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -3464,7 +3515,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3479,17 +3530,17 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3504,7 +3555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3519,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3534,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -3549,12 +3600,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -3569,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3584,7 +3635,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3599,7 +3650,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3614,12 +3665,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3634,7 +3685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3649,12 +3700,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3669,7 +3720,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3684,7 +3735,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3699,7 +3750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3714,7 +3765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3726,7 +3777,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3735,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3750,7 +3801,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -3765,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -3780,7 +3831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3795,12 +3846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3812,7 +3863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3824,7 +3875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3836,7 +3887,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3848,7 +3899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -3863,12 +3914,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3883,7 +3934,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -3898,7 +3949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -3913,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -3925,12 +3976,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3942,7 +3993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -3954,7 +4005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -3969,7 +4020,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3996,18 +4047,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CE5871-4189-4DE6-9241-C2CEBF98FDE7}">
-  <dimension ref="A2:F51"/>
+  <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4020,8 +4072,23 @@
       <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -4035,14 +4102,56 @@
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <f>1+0.75+2.5+2.25</f>
+        <v>6.5</v>
+      </c>
+      <c r="J3">
+        <f>H3-I3</f>
+        <v>24.5</v>
+      </c>
+      <c r="K3">
+        <f>G3-I3-J3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>31</v>
+      </c>
+      <c r="I4">
+        <f>2.25+0.75+2</f>
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J13" si="0">H4-I4</f>
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K13" si="1">G4-I4-J4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -4056,8 +4165,29 @@
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5">
+        <v>32.25</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <f>1.5+1.75+1.5</f>
+        <v>4.75</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -4065,17 +4195,35 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>17.5</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <f>8+7+8+8+4</f>
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -4089,8 +4237,20 @@
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -4104,8 +4264,29 @@
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <f>1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="J8">
+        <f>H8-I8</f>
+        <v>30.5</v>
+      </c>
+      <c r="K8">
+        <f>G8-I8-J8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4119,18 +4300,80 @@
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <f>1+0.75</f>
+        <v>1.75</v>
+      </c>
+      <c r="J9">
+        <f>H9-I9</f>
+        <v>30.25</v>
+      </c>
+      <c r="K9">
+        <f>G9-I9-J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>32.5</v>
+      </c>
+      <c r="I10">
+        <f>1+1.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="J10">
+        <f>H10-I10</f>
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <f>G10-I10-J10</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <f t="shared" ref="G11:I11" si="2">SUM(G3:G10)</f>
+        <v>224.25</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>225.5</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="J11">
+        <f>SUM(J3:J10)</f>
+        <v>168.5</v>
+      </c>
+      <c r="K11">
+        <f>SUM(K3:K10)</f>
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4145,7 +4388,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -4160,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -4175,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -4190,12 +4433,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -4210,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4225,7 +4468,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4233,14 +4476,14 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D19">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4255,12 +4498,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4275,7 +4518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4290,12 +4533,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -4310,7 +4553,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -4325,7 +4568,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4340,7 +4583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -4355,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -4370,7 +4613,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -4379,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4394,7 +4637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -4409,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4424,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -4439,72 +4682,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
       <c r="B36">
         <v>5</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>12</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="D37">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>5</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>7.5</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
       <c r="B40">
         <v>12</v>
       </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
       <c r="D40">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4512,19 +4770,19 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -4539,7 +4797,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -4547,14 +4805,14 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -4562,55 +4820,64 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
       <c r="D46">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
       <c r="D48">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
       <c r="B49">
         <v>0.5</v>
       </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
       <c r="D49">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -4618,14 +4885,14 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <f>Tabelle2456879[[#This Row],[Geplant]]-Tabelle2456879[[#This Row],[Ist]]</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -4635,14 +4902,15 @@
       </c>
       <c r="C51">
         <f>SUBTOTAL(109,Tabelle2456879[Ist])</f>
-        <v>90</v>
+        <v>168.5</v>
       </c>
       <c r="D51">
         <f>SUBTOTAL(109,Tabelle2456879[Differenz])</f>
-        <v>134</v>
+        <v>55.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
